--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_274__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_274__Reeval_Sobol_Modell_1.2.xlsx
@@ -6121,19 +6121,19 @@
                   <c:v>2.932146072387695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.67433166503906</c:v>
+                  <c:v>95.67434692382812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.65025329589844</c:v>
+                  <c:v>47.65024948120117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.999412178993225</c:v>
+                  <c:v>1.999415040016174</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.24798583984375</c:v>
+                  <c:v>95.24799346923828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.74380493164062</c:v>
+                  <c:v>47.74379730224609</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>97.86941528320312</c:v>
@@ -6142,13 +6142,13 @@
                   <c:v>-0.7712768316268921</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.279874086380005</c:v>
+                  <c:v>2.279876947402954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.38948440551758</c:v>
+                  <c:v>54.38948822021484</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55.32561874389648</c:v>
+                  <c:v>55.32561111450195</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>98.16146850585938</c:v>
@@ -6166,22 +6166,22 @@
                   <c:v>1.389518857002258</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.274041652679443</c:v>
+                  <c:v>2.274044513702393</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.84024047851562</c:v>
+                  <c:v>95.84023284912109</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.54178619384766</c:v>
+                  <c:v>44.54179000854492</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.533549785614014</c:v>
+                  <c:v>5.533543586730957</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>95.54695892333984</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.38626861572266</c:v>
+                  <c:v>98.38626098632812</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>95.13766479492188</c:v>
@@ -6190,25 +6190,25 @@
                   <c:v>95.58837127685547</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.421044111251831</c:v>
+                  <c:v>2.421047210693359</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>72.76982879638672</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>69.13904571533203</c:v>
+                  <c:v>69.13903045654297</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>90.04530334472656</c:v>
+                  <c:v>90.04529571533203</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.525130033493042</c:v>
+                  <c:v>2.525127172470093</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4548242092132568</c:v>
+                  <c:v>0.4548300802707672</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>54.07908630371094</c:v>
+                  <c:v>54.07907867431641</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1.785402178764343</c:v>
@@ -6217,61 +6217,61 @@
                   <c:v>2.310593843460083</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.480561494827271</c:v>
+                  <c:v>3.480549573898315</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.284630537033081</c:v>
+                  <c:v>2.284636259078979</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>98.37154388427734</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>71.73832702636719</c:v>
+                  <c:v>71.73831939697266</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.954816937446594</c:v>
+                  <c:v>1.954813957214355</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.98917031288147</c:v>
+                  <c:v>2.989173173904419</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>98.33991241455078</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.2877082824707</c:v>
+                  <c:v>10.28771781921387</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>84.87257385253906</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.150988817214966</c:v>
+                  <c:v>3.150983095169067</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.4644076228141785</c:v>
+                  <c:v>-0.4644017517566681</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.494860053062439</c:v>
+                  <c:v>1.494865894317627</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.087932348251343</c:v>
+                  <c:v>2.087935209274292</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.373432874679565</c:v>
+                  <c:v>2.373435735702515</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>96.51715850830078</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.156439065933228</c:v>
+                  <c:v>2.156445026397705</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>97.46552276611328</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38.18937301635742</c:v>
+                  <c:v>38.18935012817383</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.004242062568665</c:v>
+                  <c:v>1.004247903823853</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>64.83155822753906</c:v>
@@ -6280,16 +6280,16 @@
                   <c:v>0.7314203977584839</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>53.63315200805664</c:v>
+                  <c:v>53.63314437866211</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>58.76181411743164</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.06337738037109</c:v>
+                  <c:v>66.06338500976562</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.906914591789246</c:v>
+                  <c:v>1.906920433044434</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>76.87782287597656</c:v>
@@ -6307,22 +6307,22 @@
                   <c:v>98.42157745361328</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.98505175113678</c:v>
+                  <c:v>1.985045790672302</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>95.39191436767578</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.243709802627563</c:v>
+                  <c:v>2.24371862411499</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>4.459374904632568</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.232292056083679</c:v>
+                  <c:v>1.232295036315918</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>47.76684188842773</c:v>
+                  <c:v>47.76686477661133</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>93.88961029052734</c:v>
@@ -6331,19 +6331,19 @@
                   <c:v>98.44398498535156</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>98.32024383544922</c:v>
+                  <c:v>98.32025146484375</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>95.76165008544922</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>25.98212242126465</c:v>
+                  <c:v>25.98213005065918</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93.099853515625</c:v>
+                  <c:v>93.09983825683594</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>29.77591133117676</c:v>
+                  <c:v>29.7758903503418</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>98.37380218505859</c:v>
@@ -6352,7 +6352,7 @@
                   <c:v>95.74960327148438</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>95.04981231689453</c:v>
+                  <c:v>95.04979705810547</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>98.37899780273438</c:v>
@@ -6361,13 +6361,13 @@
                   <c:v>59.60017013549805</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.28272557258606</c:v>
+                  <c:v>2.282719612121582</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.238259792327881</c:v>
+                  <c:v>2.238253831863403</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>89.24131774902344</c:v>
+                  <c:v>89.24132537841797</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>95.73751068115234</c:v>
@@ -6379,10 +6379,10 @@
                   <c:v>3.331462860107422</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.407536268234253</c:v>
+                  <c:v>1.407542109489441</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.319612979888916</c:v>
+                  <c:v>2.319618701934814</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>94.83654022216797</c:v>
@@ -6397,13 +6397,13 @@
                   <c:v>6.093517780303955</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>95.44076538085938</c:v>
+                  <c:v>95.44078063964844</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>6.468708515167236</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>54.40125274658203</c:v>
+                  <c:v>54.40126037597656</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>79.87688446044922</c:v>
@@ -6412,13 +6412,13 @@
                   <c:v>97.99179077148438</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.516966581344604</c:v>
+                  <c:v>2.516969442367554</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93.16188812255859</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.863924503326416</c:v>
+                  <c:v>3.863933324813843</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>1.307568907737732</c:v>
@@ -7151,7 +7151,7 @@
         <v>87.86960000000001</v>
       </c>
       <c r="F3">
-        <v>95.67433166503906</v>
+        <v>95.67434692382812</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>47.65025329589844</v>
+        <v>47.65024948120117</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.999412178993225</v>
+        <v>1.999415040016174</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -7247,7 +7247,7 @@
         <v>94.71559999999999</v>
       </c>
       <c r="F6">
-        <v>95.24798583984375</v>
+        <v>95.24799346923828</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>47.74380493164062</v>
+        <v>47.74379730224609</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>2.279874086380005</v>
+        <v>2.279876947402954</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>53.3608</v>
       </c>
       <c r="F11">
-        <v>54.38948440551758</v>
+        <v>54.38948822021484</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>55.32561874389648</v>
+        <v>55.32561111450195</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.274041652679443</v>
+        <v>2.274044513702393</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>95.9807</v>
       </c>
       <c r="F19">
-        <v>95.84024047851562</v>
+        <v>95.84023284912109</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>44.54178619384766</v>
+        <v>44.54179000854492</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.533549785614014</v>
+        <v>5.533543586730957</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>98.18859999999999</v>
       </c>
       <c r="F23">
-        <v>98.38626861572266</v>
+        <v>98.38626098632812</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.421044111251831</v>
+        <v>2.421047210693359</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>93.2831</v>
       </c>
       <c r="F28">
-        <v>69.13904571533203</v>
+        <v>69.13903045654297</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>90.04530334472656</v>
+        <v>90.04529571533203</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2.525130033493042</v>
+        <v>2.525127172470093</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.4548242092132568</v>
+        <v>0.4548300802707672</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>35.561</v>
       </c>
       <c r="F32">
-        <v>54.07908630371094</v>
+        <v>54.07907867431641</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>3.480561494827271</v>
+        <v>3.480549573898315</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2.284630537033081</v>
+        <v>2.284636259078979</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>71.73832702636719</v>
+        <v>71.73831939697266</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.954816937446594</v>
+        <v>1.954813957214355</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2.98917031288147</v>
+        <v>2.989173173904419</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>56.5406</v>
       </c>
       <c r="F42">
-        <v>10.2877082824707</v>
+        <v>10.28771781921387</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>3.150988817214966</v>
+        <v>3.150983095169067</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.4644076228141785</v>
+        <v>-0.4644017517566681</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.494860053062439</v>
+        <v>1.494865894317627</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.087932348251343</v>
+        <v>2.087935209274292</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2.373432874679565</v>
+        <v>2.373435735702515</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2.156439065933228</v>
+        <v>2.156445026397705</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>38.18937301635742</v>
+        <v>38.18935012817383</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>44.5448</v>
       </c>
       <c r="F53">
-        <v>1.004242062568665</v>
+        <v>1.004247903823853</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>53.63315200805664</v>
+        <v>53.63314437866211</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>66.06337738037109</v>
+        <v>66.06338500976562</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.906914591789246</v>
+        <v>1.906920433044434</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>1.98505175113678</v>
+        <v>1.985045790672302</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>2.243709802627563</v>
+        <v>2.24371862411499</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.232292056083679</v>
+        <v>1.232295036315918</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>47.76684188842773</v>
+        <v>47.76686477661133</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>98.32024383544922</v>
+        <v>98.32025146484375</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>25.98212242126465</v>
+        <v>25.98213005065918</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>96.0843</v>
       </c>
       <c r="F76">
-        <v>93.099853515625</v>
+        <v>93.09983825683594</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>29.77591133117676</v>
+        <v>29.7758903503418</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>95.04981231689453</v>
+        <v>95.04979705810547</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>2.28272557258606</v>
+        <v>2.282719612121582</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2.238259792327881</v>
+        <v>2.238253831863403</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>80.0817</v>
       </c>
       <c r="F85">
-        <v>89.24131774902344</v>
+        <v>89.24132537841797</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.407536268234253</v>
+        <v>1.407542109489441</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>2.319612979888916</v>
+        <v>2.319618701934814</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>93.8582</v>
       </c>
       <c r="F95">
-        <v>95.44076538085938</v>
+        <v>95.44078063964844</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>54.40125274658203</v>
+        <v>54.40126037597656</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>2.516966581344604</v>
+        <v>2.516969442367554</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>3.863924503326416</v>
+        <v>3.863933324813843</v>
       </c>
     </row>
     <row r="103" spans="1:6">
